--- a/inst/extdata/PDexports(multiple_files)/T2_BLCA/240517_BCa_T2_19.xlsx
+++ b/inst/extdata/PDexports(multiple_files)/T2_BLCA/240517_BCa_T2_19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tedma\OneDrive\Έγγραφα\itern\ProtE\inst\extdata\PDexports(multiple_files)\T2_BLCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF74730-269D-4AF6-BBAC-C3D59856689D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8AF6074-3054-4EAA-A8C7-702D9CB38948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="350">
   <si>
     <t># AAs</t>
   </si>
@@ -61,36 +61,15 @@
     <t>40S ribosomal protein S3 OS=Homo sapiens GN=RPS3 PE=1 SV=2 - [RS3_HUMAN]</t>
   </si>
   <si>
-    <t>40S ribosomal protein S8 OS=Homo sapiens GN=RPS8 PE=1 SV=2 - [RS8_HUMAN]</t>
-  </si>
-  <si>
-    <t>40S ribosomal protein S9 OS=Homo sapiens GN=RPS9 PE=1 SV=3 - [RS9_HUMAN]</t>
-  </si>
-  <si>
-    <t>6-phosphogluconate dehydrogenase, decarboxylating OS=Homo sapiens GN=PGD PE=1 SV=3 - [6PGD_HUMAN]</t>
-  </si>
-  <si>
     <t>60 kDa heat shock protein, mitochondrial OS=Homo sapiens GN=HSPD1 PE=1 SV=2 - [CH60_HUMAN]</t>
   </si>
   <si>
-    <t>60S ribosomal protein L11 OS=Homo sapiens GN=RPL11 PE=1 SV=2 - [RL11_HUMAN]</t>
-  </si>
-  <si>
     <t>60S ribosomal protein L13 OS=Homo sapiens GN=RPL13 PE=1 SV=4 - [RL13_HUMAN]</t>
   </si>
   <si>
-    <t>60S ribosomal protein L18 OS=Homo sapiens GN=RPL18 PE=1 SV=2 - [RL18_HUMAN]</t>
-  </si>
-  <si>
     <t>60S ribosomal protein L7 OS=Homo sapiens GN=RPL7 PE=1 SV=1 - [RL7_HUMAN]</t>
   </si>
   <si>
-    <t>60S ribosomal protein L7a OS=Homo sapiens GN=RPL7A PE=1 SV=2 - [RL7A_HUMAN]</t>
-  </si>
-  <si>
-    <t>60S ribosomal protein L8 OS=Homo sapiens GN=RPL8 PE=1 SV=2 - [RL8_HUMAN]</t>
-  </si>
-  <si>
     <t>78 kDa glucose-regulated protein OS=Homo sapiens GN=HSPA5 PE=1 SV=2 - [GRP78_HUMAN]</t>
   </si>
   <si>
@@ -100,18 +79,12 @@
     <t>ADP-ribosylation factor 4 OS=Homo sapiens GN=ARF4 PE=1 SV=3 - [ARF4_HUMAN]</t>
   </si>
   <si>
-    <t>ADP/ATP translocase 3 OS=Homo sapiens GN=SLC25A6 PE=1 SV=4 - [ADT3_HUMAN]</t>
-  </si>
-  <si>
     <t>ATP synthase subunit alpha, mitochondrial OS=Homo sapiens GN=ATP5A1 PE=1 SV=1 - [ATPA_HUMAN]</t>
   </si>
   <si>
     <t>ATP synthase subunit beta, mitochondrial OS=Homo sapiens GN=ATP5B PE=1 SV=3 - [ATPB_HUMAN]</t>
   </si>
   <si>
-    <t>ATP-dependent RNA helicase A OS=Homo sapiens GN=DHX9 PE=1 SV=4 - [DHX9_HUMAN]</t>
-  </si>
-  <si>
     <t>Accession</t>
   </si>
   <si>
@@ -121,9 +94,6 @@
     <t>Actin, cytoplasmic 1 OS=Homo sapiens GN=ACTB PE=1 SV=1 - [ACTB_HUMAN]</t>
   </si>
   <si>
-    <t>Actin-related protein 3 OS=Homo sapiens GN=ACTR3 PE=1 SV=3 - [ARP3_HUMAN]</t>
-  </si>
-  <si>
     <t>Alpha-1-antitrypsin OS=Homo sapiens GN=SERPINA1 PE=1 SV=3 - [A1AT_HUMAN]</t>
   </si>
   <si>
@@ -166,9 +136,6 @@
     <t>Beta-actin-like protein 2 OS=Homo sapiens GN=ACTBL2 PE=1 SV=2 - [ACTBL_HUMAN]</t>
   </si>
   <si>
-    <t>Calmodulin OS=Homo sapiens GN=CALM1 PE=1 SV=2 - [CALM_HUMAN]</t>
-  </si>
-  <si>
     <t>Calnexin OS=Homo sapiens GN=CANX PE=1 SV=2 - [CALX_HUMAN]</t>
   </si>
   <si>
@@ -181,9 +148,6 @@
     <t>Carbonic anhydrase 2 OS=Homo sapiens GN=CA2 PE=1 SV=2 - [CAH2_HUMAN]</t>
   </si>
   <si>
-    <t>Carbonyl reductase [NADPH] 1 OS=Homo sapiens GN=CBR1 PE=1 SV=3 - [CBR1_HUMAN]</t>
-  </si>
-  <si>
     <t>Chloride intracellular channel protein 1 OS=Homo sapiens GN=CLIC1 PE=1 SV=4 - [CLIC1_HUMAN]</t>
   </si>
   <si>
@@ -193,9 +157,6 @@
     <t>Cofilin-1 OS=Homo sapiens GN=CFL1 PE=1 SV=3 - [COF1_HUMAN]</t>
   </si>
   <si>
-    <t>Collagen alpha-1(VI) chain OS=Homo sapiens GN=COL6A1 PE=1 SV=3 - [CO6A1_HUMAN]</t>
-  </si>
-  <si>
     <t>Collagen alpha-2(VI) chain OS=Homo sapiens GN=COL6A2 PE=1 SV=4 - [CO6A2_HUMAN]</t>
   </si>
   <si>
@@ -214,9 +175,6 @@
     <t>Coverage</t>
   </si>
   <si>
-    <t>Cytoskeleton-associated protein 4 OS=Homo sapiens GN=CKAP4 PE=1 SV=2 - [CKAP4_HUMAN]</t>
-  </si>
-  <si>
     <t>Cytosol aminopeptidase OS=Homo sapiens GN=LAP3 PE=1 SV=3 - [AMPL_HUMAN]</t>
   </si>
   <si>
@@ -235,21 +193,12 @@
     <t>Dolichyl-diphosphooligosaccharide--protein glycosyltransferase subunit 1 OS=Homo sapiens GN=RPN1 PE=1 SV=1 - [RPN1_HUMAN]</t>
   </si>
   <si>
-    <t>Dolichyl-diphosphooligosaccharide--protein glycosyltransferase subunit 2 OS=Homo sapiens GN=RPN2 PE=1 SV=3 - [RPN2_HUMAN]</t>
-  </si>
-  <si>
     <t>Elongation factor 1-alpha 1 OS=Homo sapiens GN=EEF1A1 PE=1 SV=1 - [EF1A1_HUMAN]</t>
   </si>
   <si>
     <t>Elongation factor 1-alpha 2 OS=Homo sapiens GN=EEF1A2 PE=1 SV=1 - [EF1A2_HUMAN]</t>
   </si>
   <si>
-    <t>Elongation factor 1-delta OS=Homo sapiens GN=EEF1D PE=1 SV=5 - [EF1D_HUMAN]</t>
-  </si>
-  <si>
-    <t>Elongation factor 1-gamma OS=Homo sapiens GN=EEF1G PE=1 SV=3 - [EF1G_HUMAN]</t>
-  </si>
-  <si>
     <t>Elongation factor 2 OS=Homo sapiens GN=EEF2 PE=1 SV=4 - [EF2_HUMAN]</t>
   </si>
   <si>
@@ -259,9 +208,6 @@
     <t>Eukaryotic initiation factor 4A-I OS=Homo sapiens GN=EIF4A1 PE=1 SV=1 - [IF4A1_HUMAN]</t>
   </si>
   <si>
-    <t>Eukaryotic initiation factor 4A-II OS=Homo sapiens GN=EIF4A2 PE=1 SV=2 - [IF4A2_HUMAN]</t>
-  </si>
-  <si>
     <t>Ezrin OS=Homo sapiens GN=EZR PE=1 SV=4 - [EZRI_HUMAN]</t>
   </si>
   <si>
@@ -283,36 +229,21 @@
     <t>Filamin-B OS=Homo sapiens GN=FLNB PE=1 SV=2 - [FLNB_HUMAN]</t>
   </si>
   <si>
-    <t>Flavin reductase (NADPH) OS=Homo sapiens GN=BLVRB PE=1 SV=3 - [BLVRB_HUMAN]</t>
-  </si>
-  <si>
     <t>Fructose-bisphosphate aldolase A OS=Homo sapiens GN=ALDOA PE=1 SV=2 - [ALDOA_HUMAN]</t>
   </si>
   <si>
-    <t>GTP-binding nuclear protein Ran OS=Homo sapiens GN=RAN PE=1 SV=3 - [RAN_HUMAN]</t>
-  </si>
-  <si>
-    <t>Galectin-1 OS=Homo sapiens GN=LGALS1 PE=1 SV=2 - [LEG1_HUMAN]</t>
-  </si>
-  <si>
     <t>Gelsolin OS=Homo sapiens GN=GSN PE=1 SV=1 - [GELS_HUMAN]</t>
   </si>
   <si>
     <t>Glucose-6-phosphate isomerase OS=Homo sapiens GN=GPI PE=1 SV=4 - [G6PI_HUMAN]</t>
   </si>
   <si>
-    <t>Glucosidase 2 subunit beta OS=Homo sapiens GN=PRKCSH PE=1 SV=2 - [GLU2B_HUMAN]</t>
-  </si>
-  <si>
     <t>Glutathione S-transferase P OS=Homo sapiens GN=GSTP1 PE=1 SV=2 - [GSTP1_HUMAN]</t>
   </si>
   <si>
     <t>Glyceraldehyde-3-phosphate dehydrogenase OS=Homo sapiens GN=GAPDH PE=1 SV=3 - [G3P_HUMAN]</t>
   </si>
   <si>
-    <t>Guanylate-binding protein 1 OS=Homo sapiens GN=GBP1 PE=1 SV=2 - [GBP1_HUMAN]</t>
-  </si>
-  <si>
     <t>HLA class I histocompatibility antigen, A-68 alpha chain OS=Homo sapiens GN=HLA-A PE=1 SV=4 - [1A68_HUMAN]</t>
   </si>
   <si>
@@ -352,18 +283,12 @@
     <t>Hemoglobin subunit delta OS=Homo sapiens GN=HBD PE=1 SV=2 - [HBD_HUMAN]</t>
   </si>
   <si>
-    <t>Heterogeneous nuclear ribonucleoprotein F OS=Homo sapiens GN=HNRNPF PE=1 SV=3 - [HNRPF_HUMAN]</t>
-  </si>
-  <si>
     <t>Heterogeneous nuclear ribonucleoprotein H OS=Homo sapiens GN=HNRNPH1 PE=1 SV=4 - [HNRH1_HUMAN]</t>
   </si>
   <si>
     <t>Heterogeneous nuclear ribonucleoprotein K OS=Homo sapiens GN=HNRNPK PE=1 SV=1 - [HNRPK_HUMAN]</t>
   </si>
   <si>
-    <t>Heterogeneous nuclear ribonucleoprotein M OS=Homo sapiens GN=HNRNPM PE=1 SV=3 - [HNRPM_HUMAN]</t>
-  </si>
-  <si>
     <t>Heterogeneous nuclear ribonucleoprotein U OS=Homo sapiens GN=HNRNPU PE=1 SV=6 - [HNRPU_HUMAN]</t>
   </si>
   <si>
@@ -418,15 +343,9 @@
     <t>Ig kappa chain C region OS=Homo sapiens GN=IGKC PE=1 SV=1 - [IGKC_HUMAN]</t>
   </si>
   <si>
-    <t>Ig kappa chain V-III region SIE OS=Homo sapiens PE=1 SV=1 - [KV302_HUMAN]</t>
-  </si>
-  <si>
     <t>Ig lambda-6 chain C region OS=Homo sapiens GN=IGLC6 PE=4 SV=1 - [LAC6_HUMAN]</t>
   </si>
   <si>
-    <t>Interferon-induced GTP-binding protein Mx1 OS=Homo sapiens GN=MX1 PE=1 SV=4 - [MX1_HUMAN]</t>
-  </si>
-  <si>
     <t>Isocitrate dehydrogenase [NADP], mitochondrial OS=Homo sapiens GN=IDH2 PE=1 SV=2 - [IDHP_HUMAN]</t>
   </si>
   <si>
@@ -472,9 +391,6 @@
     <t>Macrophage-capping protein OS=Homo sapiens GN=CAPG PE=1 SV=2 - [CAPG_HUMAN]</t>
   </si>
   <si>
-    <t>Malate dehydrogenase, cytoplasmic OS=Homo sapiens GN=MDH1 PE=1 SV=4 - [MDHC_HUMAN]</t>
-  </si>
-  <si>
     <t>Moesin OS=Homo sapiens GN=MSN PE=1 SV=3 - [MOES_HUMAN]</t>
   </si>
   <si>
@@ -487,9 +403,6 @@
     <t>Myosin-10 OS=Homo sapiens GN=MYH10 PE=1 SV=3 - [MYH10_HUMAN]</t>
   </si>
   <si>
-    <t>Myosin-14 OS=Homo sapiens GN=MYH14 PE=1 SV=2 - [MYH14_HUMAN]</t>
-  </si>
-  <si>
     <t>Myosin-9 OS=Homo sapiens GN=MYH9 PE=1 SV=4 - [MYH9_HUMAN]</t>
   </si>
   <si>
@@ -544,9 +457,6 @@
     <t>P01024</t>
   </si>
   <si>
-    <t>P01620</t>
-  </si>
-  <si>
     <t>P01834</t>
   </si>
   <si>
@@ -619,9 +529,6 @@
     <t>P04843</t>
   </si>
   <si>
-    <t>P04844</t>
-  </si>
-  <si>
     <t>P05783</t>
   </si>
   <si>
@@ -664,9 +571,6 @@
     <t>P07900</t>
   </si>
   <si>
-    <t>P07951</t>
-  </si>
-  <si>
     <t>P08133</t>
   </si>
   <si>
@@ -688,9 +592,6 @@
     <t>P09211</t>
   </si>
   <si>
-    <t>P09382</t>
-  </si>
-  <si>
     <t>P09525</t>
   </si>
   <si>
@@ -721,18 +622,12 @@
     <t>P11142</t>
   </si>
   <si>
-    <t>P12109</t>
-  </si>
-  <si>
     <t>P12110</t>
   </si>
   <si>
     <t>P12111</t>
   </si>
   <si>
-    <t>P12236</t>
-  </si>
-  <si>
     <t>P12814</t>
   </si>
   <si>
@@ -754,9 +649,6 @@
     <t>P13928</t>
   </si>
   <si>
-    <t>P14314</t>
-  </si>
-  <si>
     <t>P14618</t>
   </si>
   <si>
@@ -769,9 +661,6 @@
     <t>P15924</t>
   </si>
   <si>
-    <t>P16152</t>
-  </si>
-  <si>
     <t>P16403</t>
   </si>
   <si>
@@ -787,9 +676,6 @@
     <t>P18463</t>
   </si>
   <si>
-    <t>P18669</t>
-  </si>
-  <si>
     <t>P19105</t>
   </si>
   <si>
@@ -799,18 +685,12 @@
     <t>P19971</t>
   </si>
   <si>
-    <t>P20591</t>
-  </si>
-  <si>
     <t>P20700</t>
   </si>
   <si>
     <t>P21333</t>
   </si>
   <si>
-    <t>P21796</t>
-  </si>
-  <si>
     <t>P21980</t>
   </si>
   <si>
@@ -838,9 +718,6 @@
     <t>P26373</t>
   </si>
   <si>
-    <t>P26641</t>
-  </si>
-  <si>
     <t>P27348</t>
   </si>
   <si>
@@ -856,15 +733,9 @@
     <t>P29401</t>
   </si>
   <si>
-    <t>P29692</t>
-  </si>
-  <si>
     <t>P30041</t>
   </si>
   <si>
-    <t>P30043</t>
-  </si>
-  <si>
     <t>P30086</t>
   </si>
   <si>
@@ -889,9 +760,6 @@
     <t>P32119</t>
   </si>
   <si>
-    <t>P32455</t>
-  </si>
-  <si>
     <t>P35579</t>
   </si>
   <si>
@@ -910,18 +778,12 @@
     <t>P40121</t>
   </si>
   <si>
-    <t>P40925</t>
-  </si>
-  <si>
     <t>P42224</t>
   </si>
   <si>
     <t>P45880</t>
   </si>
   <si>
-    <t>P46781</t>
-  </si>
-  <si>
     <t>P46940</t>
   </si>
   <si>
@@ -931,24 +793,6 @@
     <t>P50395</t>
   </si>
   <si>
-    <t>P50454</t>
-  </si>
-  <si>
-    <t>P51149</t>
-  </si>
-  <si>
-    <t>P52209</t>
-  </si>
-  <si>
-    <t>P52272</t>
-  </si>
-  <si>
-    <t>P52597</t>
-  </si>
-  <si>
-    <t>P55072</t>
-  </si>
-  <si>
     <t>P60174</t>
   </si>
   <si>
@@ -961,15 +805,6 @@
     <t>P60842</t>
   </si>
   <si>
-    <t>P61026</t>
-  </si>
-  <si>
-    <t>P61106</t>
-  </si>
-  <si>
-    <t>P61158</t>
-  </si>
-  <si>
     <t>P61204</t>
   </si>
   <si>
@@ -979,18 +814,9 @@
     <t>P61981</t>
   </si>
   <si>
-    <t>P62158</t>
-  </si>
-  <si>
-    <t>P62241</t>
-  </si>
-  <si>
     <t>P62258</t>
   </si>
   <si>
-    <t>P62424</t>
-  </si>
-  <si>
     <t>P62736</t>
   </si>
   <si>
@@ -1000,24 +826,12 @@
     <t>P62820</t>
   </si>
   <si>
-    <t>P62826</t>
-  </si>
-  <si>
-    <t>P62913</t>
-  </si>
-  <si>
-    <t>P62917</t>
-  </si>
-  <si>
     <t>P62937</t>
   </si>
   <si>
     <t>P63104</t>
   </si>
   <si>
-    <t>P63244</t>
-  </si>
-  <si>
     <t>P67936</t>
   </si>
   <si>
@@ -1054,9 +868,6 @@
     <t>Peroxiredoxin-2 OS=Homo sapiens GN=PRDX2 PE=1 SV=5 - [PRDX2_HUMAN]</t>
   </si>
   <si>
-    <t>Peroxiredoxin-4 OS=Homo sapiens GN=PRDX4 PE=1 SV=1 - [PRDX4_HUMAN]</t>
-  </si>
-  <si>
     <t>Peroxiredoxin-6 OS=Homo sapiens GN=PRDX6 PE=1 SV=3 - [PRDX6_HUMAN]</t>
   </si>
   <si>
@@ -1069,9 +880,6 @@
     <t>Phosphoglycerate kinase 1 OS=Homo sapiens GN=PGK1 PE=1 SV=3 - [PGK1_HUMAN]</t>
   </si>
   <si>
-    <t>Phosphoglycerate mutase 1 OS=Homo sapiens GN=PGAM1 PE=1 SV=2 - [PGAM1_HUMAN]</t>
-  </si>
-  <si>
     <t>Plastin-2 OS=Homo sapiens GN=LCP1 PE=1 SV=6 - [PLSL_HUMAN]</t>
   </si>
   <si>
@@ -1090,9 +898,6 @@
     <t>Proteasome activator complex subunit 1 OS=Homo sapiens GN=PSME1 PE=1 SV=1 - [PSME1_HUMAN]</t>
   </si>
   <si>
-    <t>Proteasome activator complex subunit 2 OS=Homo sapiens GN=PSME2 PE=1 SV=4 - [PSME2_HUMAN]</t>
-  </si>
-  <si>
     <t>Protein S100-A11 OS=Homo sapiens GN=S100A11 PE=1 SV=2 - [S10AB_HUMAN]</t>
   </si>
   <si>
@@ -1123,9 +928,6 @@
     <t>Q01546</t>
   </si>
   <si>
-    <t>Q01995</t>
-  </si>
-  <si>
     <t>Q04695</t>
   </si>
   <si>
@@ -1141,30 +943,15 @@
     <t>Q06830</t>
   </si>
   <si>
-    <t>Q07020</t>
-  </si>
-  <si>
-    <t>Q07065</t>
-  </si>
-  <si>
-    <t>Q08211</t>
-  </si>
-  <si>
     <t>Q09666</t>
   </si>
   <si>
-    <t>Q13162</t>
-  </si>
-  <si>
     <t>Q13509</t>
   </si>
   <si>
     <t>Q13885</t>
   </si>
   <si>
-    <t>Q14240</t>
-  </si>
-  <si>
     <t>Q14697</t>
   </si>
   <si>
@@ -1189,12 +976,6 @@
     <t>Q71DI3</t>
   </si>
   <si>
-    <t>Q7KZF4</t>
-  </si>
-  <si>
-    <t>Q7Z406</t>
-  </si>
-  <si>
     <t>Q96KK5</t>
   </si>
   <si>
@@ -1204,12 +985,6 @@
     <t>Q9H0U4</t>
   </si>
   <si>
-    <t>Q9P2E9</t>
-  </si>
-  <si>
-    <t>Q9UL46</t>
-  </si>
-  <si>
     <t>Q9Y490</t>
   </si>
   <si>
@@ -1219,48 +994,27 @@
     <t>Ras GTPase-activating-like protein IQGAP1 OS=Homo sapiens GN=IQGAP1 PE=1 SV=1 - [IQGA1_HUMAN]</t>
   </si>
   <si>
-    <t>Ras-related protein Rab-10 OS=Homo sapiens GN=RAB10 PE=1 SV=1 - [RAB10_HUMAN]</t>
-  </si>
-  <si>
-    <t>Ras-related protein Rab-14 OS=Homo sapiens GN=RAB14 PE=1 SV=4 - [RAB14_HUMAN]</t>
-  </si>
-  <si>
     <t>Ras-related protein Rab-1A OS=Homo sapiens GN=RAB1A PE=1 SV=3 - [RAB1A_HUMAN]</t>
   </si>
   <si>
     <t>Ras-related protein Rab-1B OS=Homo sapiens GN=RAB1B PE=1 SV=1 - [RAB1B_HUMAN]</t>
   </si>
   <si>
-    <t>Ras-related protein Rab-7a OS=Homo sapiens GN=RAB7A PE=1 SV=1 - [RAB7A_HUMAN]</t>
-  </si>
-  <si>
-    <t>Receptor of activated protein C kinase 1 OS=Homo sapiens GN=RACK1 PE=1 SV=3 - [RACK1_HUMAN]</t>
-  </si>
-  <si>
     <t>Retinal dehydrogenase 1 OS=Homo sapiens GN=ALDH1A1 PE=1 SV=2 - [AL1A1_HUMAN]</t>
   </si>
   <si>
-    <t>Ribosome-binding protein 1 OS=Homo sapiens GN=RRBP1 PE=1 SV=4 - [RRBP1_HUMAN]</t>
-  </si>
-  <si>
     <t>Score</t>
   </si>
   <si>
     <t>Serotransferrin OS=Homo sapiens GN=TF PE=1 SV=3 - [TRFE_HUMAN]</t>
   </si>
   <si>
-    <t>Serpin H1 OS=Homo sapiens GN=SERPINH1 PE=1 SV=2 - [SERPH_HUMAN]</t>
-  </si>
-  <si>
     <t>Serum albumin OS=Homo sapiens GN=ALB PE=1 SV=2 - [ALBU_HUMAN]</t>
   </si>
   <si>
     <t>Signal transducer and activator of transcription 1-alpha/beta OS=Homo sapiens GN=STAT1 PE=1 SV=2 - [STAT1_HUMAN]</t>
   </si>
   <si>
-    <t>Staphylococcal nuclease domain-containing protein 1 OS=Homo sapiens GN=SND1 PE=1 SV=1 - [SND1_HUMAN]</t>
-  </si>
-  <si>
     <t>Stress-70 protein, mitochondrial OS=Homo sapiens GN=HSPA9 PE=1 SV=2 - [GRP75_HUMAN]</t>
   </si>
   <si>
@@ -1270,15 +1024,9 @@
     <t>Thymidine phosphorylase OS=Homo sapiens GN=TYMP PE=1 SV=2 - [TYPH_HUMAN]</t>
   </si>
   <si>
-    <t>Transgelin OS=Homo sapiens GN=TAGLN PE=1 SV=4 - [TAGL_HUMAN]</t>
-  </si>
-  <si>
     <t>Transgelin-2 OS=Homo sapiens GN=TAGLN2 PE=1 SV=3 - [TAGL2_HUMAN]</t>
   </si>
   <si>
-    <t>Transitional endoplasmic reticulum ATPase OS=Homo sapiens GN=VCP PE=1 SV=4 - [TERA_HUMAN]</t>
-  </si>
-  <si>
     <t>Transketolase OS=Homo sapiens GN=TKT PE=1 SV=3 - [TKT_HUMAN]</t>
   </si>
   <si>
@@ -1291,9 +1039,6 @@
     <t>Tropomyosin alpha-4 chain OS=Homo sapiens GN=TPM4 PE=1 SV=3 - [TPM4_HUMAN]</t>
   </si>
   <si>
-    <t>Tropomyosin beta chain OS=Homo sapiens GN=TPM2 PE=1 SV=1 - [TPM2_HUMAN]</t>
-  </si>
-  <si>
     <t>Tubulin alpha-1B chain OS=Homo sapiens GN=TUBA1B PE=1 SV=1 - [TBA1B_HUMAN]</t>
   </si>
   <si>
@@ -1319,9 +1064,6 @@
   </si>
   <si>
     <t>Vitronectin OS=Homo sapiens GN=VTN PE=1 SV=1 - [VTNC_HUMAN]</t>
-  </si>
-  <si>
-    <t>Voltage-dependent anion-selective channel protein 1 OS=Homo sapiens GN=VDAC1 PE=1 SV=2 - [VDAC1_HUMAN]</t>
   </si>
   <si>
     <t>Voltage-dependent anion-selective channel protein 2 OS=Homo sapiens GN=VDAC2 PE=1 SV=2 - [VDAC2_HUMAN]</t>
@@ -1824,10 +1566,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L213"/>
+  <dimension ref="A1:L170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="A214" sqref="A214:XFD932"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="B155" sqref="B155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1846,16 +1588,16 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>407</v>
+        <v>327</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1870,24 +1612,24 @@
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>435</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>338</v>
+        <v>276</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="C2" s="3">
         <v>724.54491233825695</v>
@@ -1922,10 +1664,10 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>337</v>
+        <v>275</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="C3" s="3">
         <v>650.98732590675399</v>
@@ -1960,10 +1702,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>410</v>
+        <v>329</v>
       </c>
       <c r="C4" s="3">
         <v>581.152613639832</v>
@@ -1998,10 +1740,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>311</v>
+        <v>259</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C5" s="3">
         <v>460.75923967361501</v>
@@ -2036,10 +1778,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C6" s="3">
         <v>397.89303648471798</v>
@@ -2074,10 +1816,10 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="C7" s="3">
         <v>377.29732310771902</v>
@@ -2112,10 +1854,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="C8" s="3">
         <v>305.77899885177601</v>
@@ -2150,10 +1892,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C9" s="3">
         <v>300.20279347896599</v>
@@ -2188,10 +1930,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="C10" s="3">
         <v>266.00817453861202</v>
@@ -2226,10 +1968,10 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>353</v>
+        <v>289</v>
       </c>
       <c r="C11" s="3">
         <v>263.99538981914498</v>
@@ -2264,10 +2006,10 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>323</v>
+        <v>265</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C12" s="3">
         <v>250.018141150475</v>
@@ -2302,10 +2044,10 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>383</v>
+        <v>312</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>351</v>
+        <v>287</v>
       </c>
       <c r="C13" s="3">
         <v>248.549428105354</v>
@@ -2340,10 +2082,10 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="C14" s="3">
         <v>244.73409771919299</v>
@@ -2378,10 +2120,10 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="C15" s="3">
         <v>240.28610265255</v>
@@ -2416,10 +2158,10 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>324</v>
+        <v>266</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="C16" s="3">
         <v>233.715703964233</v>
@@ -2454,10 +2196,10 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C17" s="3">
         <v>226.11170589923901</v>
@@ -2492,10 +2234,10 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>430</v>
+        <v>345</v>
       </c>
       <c r="C18" s="3">
         <v>210.91897678375199</v>
@@ -2530,10 +2272,10 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>261</v>
+        <v>222</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="C19" s="3">
         <v>210.535120606422</v>
@@ -2568,10 +2310,10 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C20" s="3">
         <v>204.746195077896</v>
@@ -2606,10 +2348,10 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="C21" s="3">
         <v>197.390140175819</v>
@@ -2644,10 +2386,10 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>425</v>
+        <v>340</v>
       </c>
       <c r="C22" s="3">
         <v>193.918987154961</v>
@@ -2682,10 +2424,10 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>290</v>
+        <v>246</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="C23" s="3">
         <v>192.62900412082701</v>
@@ -2720,10 +2462,10 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="C24" s="3">
         <v>189.61258649826101</v>
@@ -2758,10 +2500,10 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>245</v>
+        <v>209</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>363</v>
+        <v>298</v>
       </c>
       <c r="C25" s="3">
         <v>188.770981907845</v>
@@ -2796,10 +2538,10 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>334</v>
+        <v>272</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>424</v>
+        <v>339</v>
       </c>
       <c r="C26" s="3">
         <v>186.039465546608</v>
@@ -2834,10 +2576,10 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C27" s="3">
         <v>181.001552700996</v>
@@ -2872,10 +2614,10 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>204</v>
+        <v>173</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C28" s="3">
         <v>177.57634735107399</v>
@@ -2910,10 +2652,10 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C29" s="3">
         <v>176.61525082588199</v>
@@ -2948,10 +2690,10 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>282</v>
+        <v>239</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>358</v>
+        <v>293</v>
       </c>
       <c r="C30" s="3">
         <v>173.26898598670999</v>
@@ -2986,10 +2728,10 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>335</v>
+        <v>273</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>428</v>
+        <v>343</v>
       </c>
       <c r="C31" s="3">
         <v>172.13697242736799</v>
@@ -3024,10 +2766,10 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C32" s="3">
         <v>168.904658317566</v>
@@ -3062,10 +2804,10 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>246</v>
+        <v>210</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="C33" s="3">
         <v>168.441963791847</v>
@@ -3100,10 +2842,10 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="C34" s="3">
         <v>165.98160648345899</v>
@@ -3138,10 +2880,10 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="C35" s="3">
         <v>162.73217570781699</v>
@@ -3176,10 +2918,10 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>232</v>
+        <v>199</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="C36" s="3">
         <v>160.53922271728501</v>
@@ -3214,10 +2956,10 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="C37" s="3">
         <v>157.43718278408099</v>
@@ -3252,10 +2994,10 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>333</v>
+        <v>271</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C38" s="3">
         <v>154.72406113147699</v>
@@ -3290,7 +3032,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>330</v>
+        <v>269</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>11</v>
@@ -3328,10 +3070,10 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>378</v>
+        <v>308</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>427</v>
+        <v>342</v>
       </c>
       <c r="C40" s="3">
         <v>137.63836944103201</v>
@@ -3366,10 +3108,10 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>379</v>
+        <v>309</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>426</v>
+        <v>341</v>
       </c>
       <c r="C41" s="3">
         <v>134.81937789917001</v>
@@ -3404,10 +3146,10 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="C42" s="3">
         <v>130.600432157516</v>
@@ -3442,10 +3184,10 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>250</v>
+        <v>213</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="C43" s="3">
         <v>130.425255656242</v>
@@ -3480,10 +3222,10 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="C44" s="3">
         <v>123.791723012924</v>
@@ -3518,10 +3260,10 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="C45" s="3">
         <v>123.371966958046</v>
@@ -3556,10 +3298,10 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C46" s="3">
         <v>120.40930056572</v>
@@ -3594,10 +3336,10 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="C47" s="3">
         <v>117.543493151665</v>
@@ -3632,10 +3374,10 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>391</v>
+        <v>318</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="C48" s="3">
         <v>114.867477297783</v>
@@ -3670,10 +3412,10 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>348</v>
+        <v>285</v>
       </c>
       <c r="C49" s="3">
         <v>113.326925873756</v>
@@ -3708,10 +3450,10 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>368</v>
+        <v>302</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="C50" s="3">
         <v>108.25311541557301</v>
@@ -3746,10 +3488,10 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>347</v>
+        <v>284</v>
       </c>
       <c r="C51" s="3">
         <v>107.74768924713101</v>
@@ -3784,10 +3526,10 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="C52" s="3">
         <v>103.250655293465</v>
@@ -3822,10 +3564,10 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>361</v>
+        <v>296</v>
       </c>
       <c r="C53" s="3">
         <v>101.01696491241501</v>
@@ -3860,10 +3602,10 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="C54" s="3">
         <v>100.529697775841</v>
@@ -3898,10 +3640,10 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>370</v>
+        <v>304</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C55" s="3">
         <v>99.792476415634198</v>
@@ -3936,10 +3678,10 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="C56" s="3">
         <v>97.981158852577195</v>
@@ -3974,10 +3716,10 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>385</v>
+        <v>314</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C57" s="3">
         <v>95.602401375770597</v>
@@ -4012,10 +3754,10 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>376</v>
+        <v>307</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="C58" s="3">
         <v>94.200438618660002</v>
@@ -4050,10 +3792,10 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>372</v>
+        <v>306</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>342</v>
+        <v>280</v>
       </c>
       <c r="C59" s="3">
         <v>93.447318673133907</v>
@@ -4088,7 +3830,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>321</v>
+        <v>264</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>6</v>
@@ -4126,7 +3868,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>273</v>
+        <v>232</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>10</v>
@@ -4164,10 +3906,10 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>293</v>
+        <v>249</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>417</v>
+        <v>334</v>
       </c>
       <c r="C62" s="3">
         <v>90.924630165100098</v>
@@ -4202,7 +3944,7 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>286</v>
+        <v>243</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>9</v>
@@ -4240,10 +3982,10 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>235</v>
+        <v>201</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C64" s="3">
         <v>88.468448638916001</v>
@@ -4278,10 +4020,10 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>253</v>
+        <v>216</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>431</v>
+        <v>346</v>
       </c>
       <c r="C65" s="3">
         <v>86.519739985466003</v>
@@ -4316,10 +4058,10 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="C66" s="3">
         <v>85.692147970199599</v>
@@ -4354,10 +4096,10 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>359</v>
+        <v>294</v>
       </c>
       <c r="C67" s="3">
         <v>82.668040990829496</v>
@@ -4392,10 +4134,10 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>309</v>
+        <v>257</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>420</v>
+        <v>336</v>
       </c>
       <c r="C68" s="3">
         <v>81.6697261333466</v>
@@ -4430,10 +4172,10 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>405</v>
+        <v>326</v>
       </c>
       <c r="C69" s="3">
         <v>81.355621695518494</v>
@@ -4468,10 +4210,10 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="C70" s="3">
         <v>78.633948326110797</v>
@@ -4506,10 +4248,10 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="C71" s="3">
         <v>78.609952688217206</v>
@@ -4544,7 +4286,7 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>285</v>
+        <v>242</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>5</v>
@@ -4582,10 +4324,10 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>274</v>
+        <v>233</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C73" s="3">
         <v>75.775329589843807</v>
@@ -4620,10 +4362,10 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="C74" s="3">
         <v>75.721998333930998</v>
@@ -4658,10 +4400,10 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="C75" s="3">
         <v>75.337221384048505</v>
@@ -4696,10 +4438,10 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>329</v>
+        <v>268</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>340</v>
+        <v>278</v>
       </c>
       <c r="C76" s="3">
         <v>72.714747428894</v>
@@ -4734,10 +4476,10 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="C77" s="3">
         <v>72.3595210313797</v>
@@ -4772,10 +4514,10 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="C78" s="3">
         <v>71.210698127746596</v>
@@ -4810,7 +4552,7 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>369</v>
+        <v>303</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>7</v>
@@ -4848,10 +4590,10 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C80" s="3">
         <v>70.706274509429903</v>
@@ -4886,10 +4628,10 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>269</v>
+        <v>229</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C81" s="3">
         <v>69.262111663818402</v>
@@ -4924,10 +4666,10 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>297</v>
+        <v>252</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>411</v>
+        <v>330</v>
       </c>
       <c r="C82" s="3">
         <v>68.977163791656494</v>
@@ -4962,10 +4704,10 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C83" s="3">
         <v>67.482119202613802</v>
@@ -5000,10 +4742,10 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>354</v>
+        <v>290</v>
       </c>
       <c r="C84" s="3">
         <v>67.159300565719604</v>
@@ -5038,7 +4780,7 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>318</v>
+        <v>263</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>8</v>
@@ -5076,10 +4818,10 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>226</v>
+        <v>193</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="C86" s="3">
         <v>65.5119904279709</v>
@@ -5114,10 +4856,10 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C87" s="3">
         <v>64.4241588115692</v>
@@ -5152,10 +4894,10 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="C88" s="3">
         <v>63.655771374702503</v>
@@ -5190,10 +4932,10 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C89" s="3">
         <v>61.010990858078003</v>
@@ -5228,10 +4970,10 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C90" s="3">
         <v>60.771991133689902</v>
@@ -5266,10 +5008,10 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>408</v>
+        <v>328</v>
       </c>
       <c r="C91" s="3">
         <v>59.969946980476401</v>
@@ -5304,10 +5046,10 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>257</v>
+        <v>219</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="C92" s="3">
         <v>59.774485945701599</v>
@@ -5342,10 +5084,10 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="C93" s="3">
         <v>59.364909529686003</v>
@@ -5380,10 +5122,10 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C94" s="3">
         <v>58.961712360382101</v>
@@ -5418,10 +5160,10 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>266</v>
+        <v>226</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>341</v>
+        <v>279</v>
       </c>
       <c r="C95" s="3">
         <v>57.994255781173699</v>
@@ -5456,10 +5198,10 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C96" s="3">
         <v>57.280419588089003</v>
@@ -5494,10 +5236,10 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>258</v>
+        <v>220</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>415</v>
+        <v>333</v>
       </c>
       <c r="C97" s="3">
         <v>56.428791165351903</v>
@@ -5532,10 +5274,10 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C98" s="3">
         <v>56.112328171729999</v>
@@ -5570,10 +5312,10 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>382</v>
+        <v>311</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>360</v>
+        <v>295</v>
       </c>
       <c r="C99" s="3">
         <v>55.769466280937202</v>
@@ -5608,10 +5350,10 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>295</v>
+        <v>251</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="C100" s="3">
         <v>54.170666813850403</v>
@@ -5646,10 +5388,10 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="C101" s="3">
         <v>53.598975181579597</v>
@@ -5684,10 +5426,10 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C102" s="3">
         <v>52.749242782592802</v>
@@ -5722,10 +5464,10 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>247</v>
+        <v>211</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="C103" s="3">
         <v>52.338816761970499</v>
@@ -5760,10 +5502,10 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>288</v>
+        <v>245</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>343</v>
+        <v>281</v>
       </c>
       <c r="C104" s="3">
         <v>51.481206893920898</v>
@@ -5798,10 +5540,10 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>317</v>
+        <v>262</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="C105" s="3">
         <v>50.861139059066801</v>
@@ -5836,10 +5578,10 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>339</v>
+        <v>277</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="C106" s="3">
         <v>50.116039395332301</v>
@@ -5874,10 +5616,10 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>263</v>
+        <v>223</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>362</v>
+        <v>297</v>
       </c>
       <c r="C107" s="3">
         <v>50.098346114158602</v>
@@ -5912,10 +5654,10 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>388</v>
+        <v>317</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="C108" s="3">
         <v>49.808627963066101</v>
@@ -5950,10 +5692,10 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>225</v>
+        <v>192</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C109" s="3">
         <v>49.606245398521402</v>
@@ -5988,10 +5730,10 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>283</v>
+        <v>240</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="C110" s="3">
         <v>49.08860039711</v>
@@ -6026,10 +5768,10 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C111" s="3">
         <v>47.467963933944702</v>
@@ -6064,7 +5806,7 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>267</v>
+        <v>227</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>12</v>
@@ -6102,10 +5844,10 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>432</v>
+        <v>347</v>
       </c>
       <c r="C113" s="3">
         <v>47.185459256172201</v>
@@ -6140,10 +5882,10 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>336</v>
+        <v>274</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="C114" s="3">
         <v>47.082785487175002</v>
@@ -6178,10 +5920,10 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>316</v>
+        <v>261</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C115" s="3">
         <v>46.833710312843301</v>
@@ -6216,10 +5958,10 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>384</v>
+        <v>313</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="C116" s="3">
         <v>45.755610466003397</v>
@@ -6254,10 +5996,10 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="C117" s="3">
         <v>45.137864112853997</v>
@@ -6292,10 +6034,10 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>381</v>
+        <v>310</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="C118" s="3">
         <v>43.576995372772203</v>
@@ -6330,10 +6072,10 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C119" s="3">
         <v>43.422834157943697</v>
@@ -6368,10 +6110,10 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>224</v>
+        <v>191</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C120" s="3">
         <v>43.301195740699796</v>
@@ -6406,10 +6148,10 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>268</v>
+        <v>228</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C121" s="3">
         <v>43.0839071273804</v>
@@ -6444,10 +6186,10 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>276</v>
+        <v>235</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C122" s="3">
         <v>42.924684047699003</v>
@@ -6482,10 +6224,10 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>265</v>
+        <v>225</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="C123" s="3">
         <v>42.781831264495899</v>
@@ -6520,10 +6262,10 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>365</v>
+        <v>300</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="C124" s="3">
         <v>42.065629363059998</v>
@@ -6558,10 +6300,10 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>345</v>
+        <v>282</v>
       </c>
       <c r="C125" s="3">
         <v>41.806145787239103</v>
@@ -6596,10 +6338,10 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>387</v>
+        <v>316</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="C126" s="3">
         <v>41.270322680473299</v>
@@ -6634,10 +6376,10 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="C127" s="3">
         <v>41.089386343956001</v>
@@ -6672,10 +6414,10 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>252</v>
+        <v>215</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C128" s="3">
         <v>41.030144214630099</v>
@@ -6710,10 +6452,10 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>298</v>
+        <v>253</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>434</v>
+        <v>348</v>
       </c>
       <c r="C129" s="3">
         <v>40.883834004402203</v>
@@ -6748,10 +6490,10 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="C130" s="3">
         <v>40.715629935264602</v>
@@ -6786,10 +6528,10 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C131" s="3">
         <v>39.832978129386902</v>
@@ -6824,10 +6566,10 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>364</v>
+        <v>299</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C132" s="3">
         <v>39.712653636932401</v>
@@ -6862,10 +6604,10 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>256</v>
+        <v>218</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="C133" s="3">
         <v>38.627131104469299</v>
@@ -6900,10 +6642,10 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>275</v>
+        <v>234</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C134" s="3">
         <v>37.590753197669997</v>
@@ -6938,10 +6680,10 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>215</v>
+        <v>183</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C135" s="3">
         <v>37.524068593978903</v>
@@ -6976,10 +6718,10 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>386</v>
+        <v>315</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C136" s="3">
         <v>37.503183960914598</v>
@@ -7014,10 +6756,10 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>221</v>
+        <v>189</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="C137" s="3">
         <v>37.286576986312902</v>
@@ -7052,10 +6794,10 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>300</v>
+        <v>254</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>398</v>
+        <v>323</v>
       </c>
       <c r="C138" s="3">
         <v>37.215641021728501</v>
@@ -7090,10 +6832,10 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="C139" s="3">
         <v>36.4311894178391</v>
@@ -7128,10 +6870,10 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="C140" s="3">
         <v>36.358874082565301</v>
@@ -7166,10 +6908,10 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>287</v>
+        <v>244</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>357</v>
+        <v>292</v>
       </c>
       <c r="C141" s="3">
         <v>35.904288053512602</v>
@@ -7204,10 +6946,10 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>352</v>
+        <v>288</v>
       </c>
       <c r="C142" s="3">
         <v>35.748265147209203</v>
@@ -7242,10 +6984,10 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>421</v>
+        <v>337</v>
       </c>
       <c r="C143" s="3">
         <v>35.742233753204303</v>
@@ -7280,10 +7022,10 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C144" s="3">
         <v>35.702476382255597</v>
@@ -7318,10 +7060,10 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>251</v>
+        <v>214</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C145" s="3">
         <v>35.691170930862398</v>
@@ -7356,10 +7098,10 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>366</v>
+        <v>301</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="C146" s="3">
         <v>34.4229077100754</v>
@@ -7394,10 +7136,10 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>291</v>
+        <v>247</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="C147" s="3">
         <v>34.294478058815002</v>
@@ -7432,10 +7174,10 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>325</v>
+        <v>267</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>401</v>
+        <v>324</v>
       </c>
       <c r="C148" s="3">
         <v>34.099237322807298</v>
@@ -7470,10 +7212,10 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>312</v>
+        <v>260</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="C149" s="3">
         <v>33.903495669364901</v>
@@ -7508,10 +7250,10 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="C150" s="3">
         <v>33.374258399009697</v>
@@ -7546,10 +7288,10 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>396</v>
+        <v>321</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>414</v>
+        <v>332</v>
       </c>
       <c r="C151" s="3">
         <v>33.351787924766498</v>
@@ -7584,10 +7326,10 @@
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>271</v>
+        <v>231</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C152" s="3">
         <v>33.310637354850797</v>
@@ -7622,10 +7364,10 @@
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>429</v>
+        <v>344</v>
       </c>
       <c r="C153" s="3">
         <v>33.282966136932401</v>
@@ -7660,10 +7402,10 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>310</v>
+        <v>258</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="C154" s="3">
         <v>33.166626811027498</v>
@@ -7698,10 +7440,10 @@
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>332</v>
+        <v>270</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>422</v>
+        <v>338</v>
       </c>
       <c r="C155" s="3">
         <v>33.100593805313103</v>
@@ -7736,10 +7478,10 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C156" s="3">
         <v>33.0506432056427</v>
@@ -7774,10 +7516,10 @@
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>281</v>
+        <v>238</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>346</v>
+        <v>283</v>
       </c>
       <c r="C157" s="3">
         <v>31.732898592948899</v>
@@ -7812,10 +7554,10 @@
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>371</v>
+        <v>305</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>355</v>
+        <v>291</v>
       </c>
       <c r="C158" s="3">
         <v>31.387686014175401</v>
@@ -7850,10 +7592,10 @@
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>301</v>
+        <v>255</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="C159" s="3">
         <v>31.371907711029099</v>
@@ -7888,10 +7630,10 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>419</v>
+        <v>335</v>
       </c>
       <c r="C160" s="3">
         <v>31.076296329498302</v>
@@ -7926,10 +7668,10 @@
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>393</v>
+        <v>320</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>402</v>
+        <v>325</v>
       </c>
       <c r="C161" s="3">
         <v>30.8705011606216</v>
@@ -7964,10 +7706,10 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>392</v>
+        <v>319</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C162" s="3">
         <v>30.725773215293898</v>
@@ -8002,10 +7744,10 @@
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>302</v>
+        <v>256</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>397</v>
+        <v>322</v>
       </c>
       <c r="C163" s="3">
         <v>30.564192295074498</v>
@@ -8040,10 +7782,10 @@
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C164" s="3">
         <v>30.256813764572101</v>
@@ -8078,10 +7820,10 @@
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C165" s="3">
         <v>30.0925339460373</v>
@@ -8116,10 +7858,10 @@
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>284</v>
+        <v>241</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="C166" s="3">
         <v>29.990772247314499</v>
@@ -8154,10 +7896,10 @@
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>294</v>
+        <v>250</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>413</v>
+        <v>331</v>
       </c>
       <c r="C167" s="3">
         <v>29.718182086944601</v>
@@ -8192,10 +7934,10 @@
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="C168" s="3">
         <v>28.7102001905441</v>
@@ -8230,10 +7972,10 @@
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C169" s="3">
         <v>28.4859170913696</v>
@@ -8268,10 +8010,10 @@
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>350</v>
+        <v>286</v>
       </c>
       <c r="C170" s="3">
         <v>28.039418458938599</v>
@@ -8302,1640 +8044,6 @@
       </c>
       <c r="L170" s="3">
         <v>5.42724609375</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A171" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C171" s="3">
-        <v>27.740993738174399</v>
-      </c>
-      <c r="D171" s="4">
-        <v>7.59</v>
-      </c>
-      <c r="E171" s="5">
-        <v>1</v>
-      </c>
-      <c r="F171" s="5">
-        <v>6</v>
-      </c>
-      <c r="G171" s="5">
-        <v>6</v>
-      </c>
-      <c r="H171" s="5">
-        <v>18</v>
-      </c>
-      <c r="I171" s="6">
-        <v>2355865.6927083302</v>
-      </c>
-      <c r="J171" s="5">
-        <v>1028</v>
-      </c>
-      <c r="K171" s="7">
-        <v>108.46201673466</v>
-      </c>
-      <c r="L171" s="3">
-        <v>5.42724609375</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A172" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C172" s="3">
-        <v>27.449225902557401</v>
-      </c>
-      <c r="D172" s="4">
-        <v>18.93</v>
-      </c>
-      <c r="E172" s="5">
-        <v>1</v>
-      </c>
-      <c r="F172" s="5">
-        <v>3</v>
-      </c>
-      <c r="G172" s="5">
-        <v>3</v>
-      </c>
-      <c r="H172" s="5">
-        <v>14</v>
-      </c>
-      <c r="I172" s="6">
-        <v>3375263.55859375</v>
-      </c>
-      <c r="J172" s="5">
-        <v>206</v>
-      </c>
-      <c r="K172" s="7">
-        <v>22.10542746466</v>
-      </c>
-      <c r="L172" s="3">
-        <v>7.64990234375</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A173" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C173" s="3">
-        <v>27.387573957443198</v>
-      </c>
-      <c r="D173" s="4">
-        <v>39.450000000000003</v>
-      </c>
-      <c r="E173" s="5">
-        <v>6</v>
-      </c>
-      <c r="F173" s="5">
-        <v>3</v>
-      </c>
-      <c r="G173" s="5">
-        <v>3</v>
-      </c>
-      <c r="H173" s="5">
-        <v>11</v>
-      </c>
-      <c r="I173" s="6">
-        <v>6571973.7604166698</v>
-      </c>
-      <c r="J173" s="5">
-        <v>109</v>
-      </c>
-      <c r="K173" s="7">
-        <v>11.767844974659999</v>
-      </c>
-      <c r="L173" s="3">
-        <v>8.48486328125</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A174" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C174" s="3">
-        <v>27.243794322013901</v>
-      </c>
-      <c r="D174" s="4">
-        <v>24.22</v>
-      </c>
-      <c r="E174" s="5">
-        <v>1</v>
-      </c>
-      <c r="F174" s="5">
-        <v>9</v>
-      </c>
-      <c r="G174" s="5">
-        <v>9</v>
-      </c>
-      <c r="H174" s="5">
-        <v>22</v>
-      </c>
-      <c r="I174" s="6">
-        <v>3698781.0416666698</v>
-      </c>
-      <c r="J174" s="5">
-        <v>483</v>
-      </c>
-      <c r="K174" s="7">
-        <v>53.105955804659999</v>
-      </c>
-      <c r="L174" s="3">
-        <v>7.22509765625</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A175" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C175" s="3">
-        <v>26.9938416481018</v>
-      </c>
-      <c r="D175" s="4">
-        <v>30.87</v>
-      </c>
-      <c r="E175" s="5">
-        <v>1</v>
-      </c>
-      <c r="F175" s="5">
-        <v>3</v>
-      </c>
-      <c r="G175" s="5">
-        <v>3</v>
-      </c>
-      <c r="H175" s="5">
-        <v>12</v>
-      </c>
-      <c r="I175" s="6">
-        <v>5059589.6614583302</v>
-      </c>
-      <c r="J175" s="5">
-        <v>149</v>
-      </c>
-      <c r="K175" s="7">
-        <v>16.82683520466</v>
-      </c>
-      <c r="L175" s="3">
-        <v>4.22119140625</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A176" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="C176" s="3">
-        <v>26.547713875770601</v>
-      </c>
-      <c r="D176" s="4">
-        <v>18.73</v>
-      </c>
-      <c r="E176" s="5">
-        <v>1</v>
-      </c>
-      <c r="F176" s="5">
-        <v>12</v>
-      </c>
-      <c r="G176" s="5">
-        <v>12</v>
-      </c>
-      <c r="H176" s="5">
-        <v>19</v>
-      </c>
-      <c r="I176" s="6">
-        <v>1789983.8990885401</v>
-      </c>
-      <c r="J176" s="5">
-        <v>806</v>
-      </c>
-      <c r="K176" s="7">
-        <v>89.265723874660097</v>
-      </c>
-      <c r="L176" s="3">
-        <v>5.26220703125</v>
-      </c>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A177" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C177" s="3">
-        <v>26.5041295289993</v>
-      </c>
-      <c r="D177" s="4">
-        <v>32.380000000000003</v>
-      </c>
-      <c r="E177" s="5">
-        <v>1</v>
-      </c>
-      <c r="F177" s="5">
-        <v>5</v>
-      </c>
-      <c r="G177" s="5">
-        <v>5</v>
-      </c>
-      <c r="H177" s="5">
-        <v>10</v>
-      </c>
-      <c r="I177" s="6">
-        <v>4032328.0208333302</v>
-      </c>
-      <c r="J177" s="5">
-        <v>281</v>
-      </c>
-      <c r="K177" s="7">
-        <v>31.10278475466</v>
-      </c>
-      <c r="L177" s="3">
-        <v>5.00830078125</v>
-      </c>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A178" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="C178" s="3">
-        <v>26.0815753936768</v>
-      </c>
-      <c r="D178" s="4">
-        <v>12.2</v>
-      </c>
-      <c r="E178" s="5">
-        <v>2</v>
-      </c>
-      <c r="F178" s="5">
-        <v>12</v>
-      </c>
-      <c r="G178" s="5">
-        <v>12</v>
-      </c>
-      <c r="H178" s="5">
-        <v>28</v>
-      </c>
-      <c r="I178" s="6">
-        <v>2348604.3828125</v>
-      </c>
-      <c r="J178" s="5">
-        <v>1410</v>
-      </c>
-      <c r="K178" s="7">
-        <v>152.38068323466001</v>
-      </c>
-      <c r="L178" s="3">
-        <v>8.60205078125</v>
-      </c>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A179" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C179" s="3">
-        <v>25.921062707901001</v>
-      </c>
-      <c r="D179" s="4">
-        <v>22.16</v>
-      </c>
-      <c r="E179" s="5">
-        <v>1</v>
-      </c>
-      <c r="F179" s="5">
-        <v>5</v>
-      </c>
-      <c r="G179" s="5">
-        <v>5</v>
-      </c>
-      <c r="H179" s="5">
-        <v>15</v>
-      </c>
-      <c r="I179" s="6">
-        <v>3661708.125</v>
-      </c>
-      <c r="J179" s="5">
-        <v>194</v>
-      </c>
-      <c r="K179" s="7">
-        <v>22.577556934659999</v>
-      </c>
-      <c r="L179" s="3">
-        <v>10.65283203125</v>
-      </c>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A180" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C180" s="3">
-        <v>24.4349782466888</v>
-      </c>
-      <c r="D180" s="4">
-        <v>23.44</v>
-      </c>
-      <c r="E180" s="5">
-        <v>3</v>
-      </c>
-      <c r="F180" s="5">
-        <v>7</v>
-      </c>
-      <c r="G180" s="5">
-        <v>7</v>
-      </c>
-      <c r="H180" s="5">
-        <v>14</v>
-      </c>
-      <c r="I180" s="6">
-        <v>3148548.25</v>
-      </c>
-      <c r="J180" s="5">
-        <v>418</v>
-      </c>
-      <c r="K180" s="7">
-        <v>47.340983524659997</v>
-      </c>
-      <c r="L180" s="3">
-        <v>5.88427734375</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A181" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="C181" s="3">
-        <v>24.3937215805054</v>
-      </c>
-      <c r="D181" s="4">
-        <v>41.42</v>
-      </c>
-      <c r="E181" s="5">
-        <v>1</v>
-      </c>
-      <c r="F181" s="5">
-        <v>8</v>
-      </c>
-      <c r="G181" s="5">
-        <v>8</v>
-      </c>
-      <c r="H181" s="5">
-        <v>20</v>
-      </c>
-      <c r="I181" s="6">
-        <v>2964154.5390625</v>
-      </c>
-      <c r="J181" s="5">
-        <v>239</v>
-      </c>
-      <c r="K181" s="7">
-        <v>27.384316934659999</v>
-      </c>
-      <c r="L181" s="3">
-        <v>5.73193359375</v>
-      </c>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A182" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C182" s="3">
-        <v>24.190163731575002</v>
-      </c>
-      <c r="D182" s="4">
-        <v>14.36</v>
-      </c>
-      <c r="E182" s="5">
-        <v>2</v>
-      </c>
-      <c r="F182" s="5">
-        <v>9</v>
-      </c>
-      <c r="G182" s="5">
-        <v>9</v>
-      </c>
-      <c r="H182" s="5">
-        <v>18</v>
-      </c>
-      <c r="I182" s="6">
-        <v>3968450.5572916698</v>
-      </c>
-      <c r="J182" s="5">
-        <v>592</v>
-      </c>
-      <c r="K182" s="7">
-        <v>67.887717984659901</v>
-      </c>
-      <c r="L182" s="3">
-        <v>6.31591796875</v>
-      </c>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A183" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C183" s="3">
-        <v>24.0132734775543</v>
-      </c>
-      <c r="D183" s="4">
-        <v>12.77</v>
-      </c>
-      <c r="E183" s="5">
-        <v>1</v>
-      </c>
-      <c r="F183" s="5">
-        <v>2</v>
-      </c>
-      <c r="G183" s="5">
-        <v>2</v>
-      </c>
-      <c r="H183" s="5">
-        <v>10</v>
-      </c>
-      <c r="I183" s="6">
-        <v>4435139.875</v>
-      </c>
-      <c r="J183" s="5">
-        <v>188</v>
-      </c>
-      <c r="K183" s="7">
-        <v>21.621068884660001</v>
-      </c>
-      <c r="L183" s="3">
-        <v>11.72216796875</v>
-      </c>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A184" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C184" s="3">
-        <v>23.928647160530101</v>
-      </c>
-      <c r="D184" s="4">
-        <v>15.72</v>
-      </c>
-      <c r="E184" s="5">
-        <v>1</v>
-      </c>
-      <c r="F184" s="5">
-        <v>1</v>
-      </c>
-      <c r="G184" s="5">
-        <v>6</v>
-      </c>
-      <c r="H184" s="5">
-        <v>15</v>
-      </c>
-      <c r="I184" s="6">
-        <v>3178692.7760416698</v>
-      </c>
-      <c r="J184" s="5">
-        <v>407</v>
-      </c>
-      <c r="K184" s="7">
-        <v>46.3727803446601</v>
-      </c>
-      <c r="L184" s="3">
-        <v>5.47802734375</v>
-      </c>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A185" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C185" s="3">
-        <v>23.8802025318146</v>
-      </c>
-      <c r="D185" s="4">
-        <v>14.81</v>
-      </c>
-      <c r="E185" s="5">
-        <v>1</v>
-      </c>
-      <c r="F185" s="5">
-        <v>3</v>
-      </c>
-      <c r="G185" s="5">
-        <v>3</v>
-      </c>
-      <c r="H185" s="5">
-        <v>12</v>
-      </c>
-      <c r="I185" s="6">
-        <v>7784424.8619791698</v>
-      </c>
-      <c r="J185" s="5">
-        <v>216</v>
-      </c>
-      <c r="K185" s="7">
-        <v>24.407618904660001</v>
-      </c>
-      <c r="L185" s="3">
-        <v>7.48876953125</v>
-      </c>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A186" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C186" s="3">
-        <v>23.369914054870598</v>
-      </c>
-      <c r="D186" s="4">
-        <v>27.84</v>
-      </c>
-      <c r="E186" s="5">
-        <v>1</v>
-      </c>
-      <c r="F186" s="5">
-        <v>7</v>
-      </c>
-      <c r="G186" s="5">
-        <v>7</v>
-      </c>
-      <c r="H186" s="5">
-        <v>12</v>
-      </c>
-      <c r="I186" s="6">
-        <v>3904730.9733072901</v>
-      </c>
-      <c r="J186" s="5">
-        <v>334</v>
-      </c>
-      <c r="K186" s="7">
-        <v>36.403021954659998</v>
-      </c>
-      <c r="L186" s="3">
-        <v>7.35693359375</v>
-      </c>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A187" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="C187" s="3">
-        <v>23.174317836761499</v>
-      </c>
-      <c r="D187" s="4">
-        <v>38.28</v>
-      </c>
-      <c r="E187" s="5">
-        <v>1</v>
-      </c>
-      <c r="F187" s="5">
-        <v>12</v>
-      </c>
-      <c r="G187" s="5">
-        <v>12</v>
-      </c>
-      <c r="H187" s="5">
-        <v>24</v>
-      </c>
-      <c r="I187" s="6">
-        <v>3488924.7005208302</v>
-      </c>
-      <c r="J187" s="5">
-        <v>418</v>
-      </c>
-      <c r="K187" s="7">
-        <v>46.411179434659999</v>
-      </c>
-      <c r="L187" s="3">
-        <v>8.68994140625</v>
-      </c>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A188" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="C188" s="3">
-        <v>23.132935881614699</v>
-      </c>
-      <c r="D188" s="4">
-        <v>15.38</v>
-      </c>
-      <c r="E188" s="5">
-        <v>1</v>
-      </c>
-      <c r="F188" s="5">
-        <v>10</v>
-      </c>
-      <c r="G188" s="5">
-        <v>10</v>
-      </c>
-      <c r="H188" s="5">
-        <v>16</v>
-      </c>
-      <c r="I188" s="6">
-        <v>1804424.47265625</v>
-      </c>
-      <c r="J188" s="5">
-        <v>910</v>
-      </c>
-      <c r="K188" s="7">
-        <v>101.93351429466</v>
-      </c>
-      <c r="L188" s="3">
-        <v>7.16650390625</v>
-      </c>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A189" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C189" s="3">
-        <v>22.999954700469999</v>
-      </c>
-      <c r="D189" s="4">
-        <v>21.15</v>
-      </c>
-      <c r="E189" s="5">
-        <v>1</v>
-      </c>
-      <c r="F189" s="5">
-        <v>4</v>
-      </c>
-      <c r="G189" s="5">
-        <v>4</v>
-      </c>
-      <c r="H189" s="5">
-        <v>14</v>
-      </c>
-      <c r="I189" s="6">
-        <v>2566231.1197916698</v>
-      </c>
-      <c r="J189" s="5">
-        <v>208</v>
-      </c>
-      <c r="K189" s="7">
-        <v>24.190163714659999</v>
-      </c>
-      <c r="L189" s="3">
-        <v>10.31591796875</v>
-      </c>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A190" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C190" s="3">
-        <v>22.312684059143098</v>
-      </c>
-      <c r="D190" s="4">
-        <v>22.43</v>
-      </c>
-      <c r="E190" s="5">
-        <v>1</v>
-      </c>
-      <c r="F190" s="5">
-        <v>9</v>
-      </c>
-      <c r="G190" s="5">
-        <v>9</v>
-      </c>
-      <c r="H190" s="5">
-        <v>21</v>
-      </c>
-      <c r="I190" s="6">
-        <v>3059709.0338541698</v>
-      </c>
-      <c r="J190" s="5">
-        <v>437</v>
-      </c>
-      <c r="K190" s="7">
-        <v>50.087144574660101</v>
-      </c>
-      <c r="L190" s="3">
-        <v>6.66845703125</v>
-      </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A191" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C191" s="3">
-        <v>22.291080355644201</v>
-      </c>
-      <c r="D191" s="4">
-        <v>3.76</v>
-      </c>
-      <c r="E191" s="5">
-        <v>1</v>
-      </c>
-      <c r="F191" s="5">
-        <v>2</v>
-      </c>
-      <c r="G191" s="5">
-        <v>7</v>
-      </c>
-      <c r="H191" s="5">
-        <v>17</v>
-      </c>
-      <c r="I191" s="6">
-        <v>3864170.4895833302</v>
-      </c>
-      <c r="J191" s="5">
-        <v>1995</v>
-      </c>
-      <c r="K191" s="7">
-        <v>227.73178123465999</v>
-      </c>
-      <c r="L191" s="3">
-        <v>5.60498046875</v>
-      </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A192" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C192" s="3">
-        <v>21.9817296266556</v>
-      </c>
-      <c r="D192" s="4">
-        <v>16.47</v>
-      </c>
-      <c r="E192" s="5">
-        <v>1</v>
-      </c>
-      <c r="F192" s="5">
-        <v>9</v>
-      </c>
-      <c r="G192" s="5">
-        <v>9</v>
-      </c>
-      <c r="H192" s="5">
-        <v>24</v>
-      </c>
-      <c r="I192" s="6">
-        <v>3336320.5651041698</v>
-      </c>
-      <c r="J192" s="5">
-        <v>662</v>
-      </c>
-      <c r="K192" s="7">
-        <v>75.473221364660105</v>
-      </c>
-      <c r="L192" s="3">
-        <v>5.83349609375</v>
-      </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A193" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C193" s="3">
-        <v>21.9726837873459</v>
-      </c>
-      <c r="D193" s="4">
-        <v>10.79</v>
-      </c>
-      <c r="E193" s="5">
-        <v>1</v>
-      </c>
-      <c r="F193" s="5">
-        <v>10</v>
-      </c>
-      <c r="G193" s="5">
-        <v>10</v>
-      </c>
-      <c r="H193" s="5">
-        <v>13</v>
-      </c>
-      <c r="I193" s="6">
-        <v>1515783.66145833</v>
-      </c>
-      <c r="J193" s="5">
-        <v>1270</v>
-      </c>
-      <c r="K193" s="7">
-        <v>140.86911518465999</v>
-      </c>
-      <c r="L193" s="3">
-        <v>6.84423828125</v>
-      </c>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A194" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C194" s="3">
-        <v>21.726156473159801</v>
-      </c>
-      <c r="D194" s="4">
-        <v>25.06</v>
-      </c>
-      <c r="E194" s="5">
-        <v>1</v>
-      </c>
-      <c r="F194" s="5">
-        <v>4</v>
-      </c>
-      <c r="G194" s="5">
-        <v>6</v>
-      </c>
-      <c r="H194" s="5">
-        <v>12</v>
-      </c>
-      <c r="I194" s="6">
-        <v>3712618.6783854198</v>
-      </c>
-      <c r="J194" s="5">
-        <v>415</v>
-      </c>
-      <c r="K194" s="7">
-        <v>45.642857344660101</v>
-      </c>
-      <c r="L194" s="3">
-        <v>5.57958984375</v>
-      </c>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A195" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C195" s="3">
-        <v>21.659243345260599</v>
-      </c>
-      <c r="D195" s="4">
-        <v>10.61</v>
-      </c>
-      <c r="E195" s="5">
-        <v>1</v>
-      </c>
-      <c r="F195" s="5">
-        <v>5</v>
-      </c>
-      <c r="G195" s="5">
-        <v>5</v>
-      </c>
-      <c r="H195" s="5">
-        <v>14</v>
-      </c>
-      <c r="I195" s="6">
-        <v>2216267.3541666698</v>
-      </c>
-      <c r="J195" s="5">
-        <v>528</v>
-      </c>
-      <c r="K195" s="7">
-        <v>59.387823884660101</v>
-      </c>
-      <c r="L195" s="3">
-        <v>4.41162109375</v>
-      </c>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A196" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="C196" s="3">
-        <v>21.401437401771499</v>
-      </c>
-      <c r="D196" s="4">
-        <v>16.5</v>
-      </c>
-      <c r="E196" s="5">
-        <v>21</v>
-      </c>
-      <c r="F196" s="5">
-        <v>1</v>
-      </c>
-      <c r="G196" s="5">
-        <v>3</v>
-      </c>
-      <c r="H196" s="5">
-        <v>12</v>
-      </c>
-      <c r="I196" s="6">
-        <v>5632674.7578125</v>
-      </c>
-      <c r="J196" s="5">
-        <v>200</v>
-      </c>
-      <c r="K196" s="7">
-        <v>22.52659012466</v>
-      </c>
-      <c r="L196" s="3">
-        <v>8.38232421875</v>
-      </c>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A197" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="C197" s="3">
-        <v>21.0990746021271</v>
-      </c>
-      <c r="D197" s="4">
-        <v>35.83</v>
-      </c>
-      <c r="E197" s="5">
-        <v>3</v>
-      </c>
-      <c r="F197" s="5">
-        <v>5</v>
-      </c>
-      <c r="G197" s="5">
-        <v>5</v>
-      </c>
-      <c r="H197" s="5">
-        <v>14</v>
-      </c>
-      <c r="I197" s="6">
-        <v>4309036.6927083302</v>
-      </c>
-      <c r="J197" s="5">
-        <v>254</v>
-      </c>
-      <c r="K197" s="7">
-        <v>28.785836504660001</v>
-      </c>
-      <c r="L197" s="3">
-        <v>7.18115234375</v>
-      </c>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A198" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C198" s="3">
-        <v>20.9576094150543</v>
-      </c>
-      <c r="D198" s="4">
-        <v>12.92</v>
-      </c>
-      <c r="E198" s="5">
-        <v>1</v>
-      </c>
-      <c r="F198" s="5">
-        <v>2</v>
-      </c>
-      <c r="G198" s="5">
-        <v>2</v>
-      </c>
-      <c r="H198" s="5">
-        <v>9</v>
-      </c>
-      <c r="I198" s="6">
-        <v>3467064.7890625</v>
-      </c>
-      <c r="J198" s="5">
-        <v>178</v>
-      </c>
-      <c r="K198" s="7">
-        <v>20.239641044660001</v>
-      </c>
-      <c r="L198" s="3">
-        <v>9.59814453125</v>
-      </c>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A199" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C199" s="3">
-        <v>20.7295017242432</v>
-      </c>
-      <c r="D199" s="4">
-        <v>7.4</v>
-      </c>
-      <c r="E199" s="5">
-        <v>1</v>
-      </c>
-      <c r="F199" s="5">
-        <v>5</v>
-      </c>
-      <c r="G199" s="5">
-        <v>5</v>
-      </c>
-      <c r="H199" s="5">
-        <v>12</v>
-      </c>
-      <c r="I199" s="6">
-        <v>2754958.5104166698</v>
-      </c>
-      <c r="J199" s="5">
-        <v>730</v>
-      </c>
-      <c r="K199" s="7">
-        <v>77.464318504660099</v>
-      </c>
-      <c r="L199" s="3">
-        <v>8.70458984375</v>
-      </c>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A200" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="C200" s="3">
-        <v>20.696889519691499</v>
-      </c>
-      <c r="D200" s="4">
-        <v>12.32</v>
-      </c>
-      <c r="E200" s="5">
-        <v>1</v>
-      </c>
-      <c r="F200" s="5">
-        <v>1</v>
-      </c>
-      <c r="G200" s="5">
-        <v>5</v>
-      </c>
-      <c r="H200" s="5">
-        <v>14</v>
-      </c>
-      <c r="I200" s="6">
-        <v>4723377.4485677099</v>
-      </c>
-      <c r="J200" s="5">
-        <v>284</v>
-      </c>
-      <c r="K200" s="7">
-        <v>32.830568624660003</v>
-      </c>
-      <c r="L200" s="3">
-        <v>4.70361328125</v>
-      </c>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A201" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="C201" s="3">
-        <v>20.281327605247501</v>
-      </c>
-      <c r="D201" s="4">
-        <v>32.090000000000003</v>
-      </c>
-      <c r="E201" s="5">
-        <v>16</v>
-      </c>
-      <c r="F201" s="5">
-        <v>3</v>
-      </c>
-      <c r="G201" s="5">
-        <v>4</v>
-      </c>
-      <c r="H201" s="5">
-        <v>14</v>
-      </c>
-      <c r="I201" s="6">
-        <v>4485718.4765625</v>
-      </c>
-      <c r="J201" s="5">
-        <v>215</v>
-      </c>
-      <c r="K201" s="7">
-        <v>23.88192868466</v>
-      </c>
-      <c r="L201" s="3">
-        <v>6.21435546875</v>
-      </c>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A202" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C202" s="3">
-        <v>20.112258791923502</v>
-      </c>
-      <c r="D202" s="4">
-        <v>14.09</v>
-      </c>
-      <c r="E202" s="5">
-        <v>2</v>
-      </c>
-      <c r="F202" s="5">
-        <v>2</v>
-      </c>
-      <c r="G202" s="5">
-        <v>4</v>
-      </c>
-      <c r="H202" s="5">
-        <v>10</v>
-      </c>
-      <c r="I202" s="6">
-        <v>5411992.1640625</v>
-      </c>
-      <c r="J202" s="5">
-        <v>298</v>
-      </c>
-      <c r="K202" s="7">
-        <v>32.84519063466</v>
-      </c>
-      <c r="L202" s="3">
-        <v>9.74462890625</v>
-      </c>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A203" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="C203" s="3">
-        <v>19.9802310466766</v>
-      </c>
-      <c r="D203" s="4">
-        <v>22.39</v>
-      </c>
-      <c r="E203" s="5">
-        <v>1</v>
-      </c>
-      <c r="F203" s="5">
-        <v>4</v>
-      </c>
-      <c r="G203" s="5">
-        <v>4</v>
-      </c>
-      <c r="H203" s="5">
-        <v>10</v>
-      </c>
-      <c r="I203" s="6">
-        <v>3142515.9166666698</v>
-      </c>
-      <c r="J203" s="5">
-        <v>201</v>
-      </c>
-      <c r="K203" s="7">
-        <v>22.596434364659999</v>
-      </c>
-      <c r="L203" s="3">
-        <v>8.83642578125</v>
-      </c>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A204" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C204" s="3">
-        <v>19.950234889984099</v>
-      </c>
-      <c r="D204" s="4">
-        <v>10.51</v>
-      </c>
-      <c r="E204" s="5">
-        <v>1</v>
-      </c>
-      <c r="F204" s="5">
-        <v>2</v>
-      </c>
-      <c r="G204" s="5">
-        <v>2</v>
-      </c>
-      <c r="H204" s="5">
-        <v>9</v>
-      </c>
-      <c r="I204" s="6">
-        <v>3694391.2089843801</v>
-      </c>
-      <c r="J204" s="5">
-        <v>257</v>
-      </c>
-      <c r="K204" s="7">
-        <v>28.007290164659999</v>
-      </c>
-      <c r="L204" s="3">
-        <v>11.03369140625</v>
-      </c>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A205" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C205" s="3">
-        <v>19.637943744659399</v>
-      </c>
-      <c r="D205" s="4">
-        <v>34.81</v>
-      </c>
-      <c r="E205" s="5">
-        <v>1</v>
-      </c>
-      <c r="F205" s="5">
-        <v>4</v>
-      </c>
-      <c r="G205" s="5">
-        <v>4</v>
-      </c>
-      <c r="H205" s="5">
-        <v>13</v>
-      </c>
-      <c r="I205" s="6">
-        <v>4709840.6822916698</v>
-      </c>
-      <c r="J205" s="5">
-        <v>135</v>
-      </c>
-      <c r="K205" s="7">
-        <v>14.70620005466</v>
-      </c>
-      <c r="L205" s="3">
-        <v>5.50341796875</v>
-      </c>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A206" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C206" s="3">
-        <v>19.5089609622955</v>
-      </c>
-      <c r="D206" s="4">
-        <v>20.6</v>
-      </c>
-      <c r="E206" s="5">
-        <v>1</v>
-      </c>
-      <c r="F206" s="5">
-        <v>8</v>
-      </c>
-      <c r="G206" s="5">
-        <v>8</v>
-      </c>
-      <c r="H206" s="5">
-        <v>16</v>
-      </c>
-      <c r="I206" s="6">
-        <v>2403593.9153645802</v>
-      </c>
-      <c r="J206" s="5">
-        <v>631</v>
-      </c>
-      <c r="K206" s="7">
-        <v>69.240974074660201</v>
-      </c>
-      <c r="L206" s="3">
-        <v>5.69384765625</v>
-      </c>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A207" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="C207" s="3">
-        <v>19.347482442855799</v>
-      </c>
-      <c r="D207" s="4">
-        <v>15.46</v>
-      </c>
-      <c r="E207" s="5">
-        <v>1</v>
-      </c>
-      <c r="F207" s="5">
-        <v>4</v>
-      </c>
-      <c r="G207" s="5">
-        <v>4</v>
-      </c>
-      <c r="H207" s="5">
-        <v>14</v>
-      </c>
-      <c r="I207" s="6">
-        <v>3824880.5442708302</v>
-      </c>
-      <c r="J207" s="5">
-        <v>317</v>
-      </c>
-      <c r="K207" s="7">
-        <v>35.054559504659998</v>
-      </c>
-      <c r="L207" s="3">
-        <v>7.69384765625</v>
-      </c>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A208" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="C208" s="3">
-        <v>19.094504356384299</v>
-      </c>
-      <c r="D208" s="4">
-        <v>15.9</v>
-      </c>
-      <c r="E208" s="5">
-        <v>2</v>
-      </c>
-      <c r="F208" s="5">
-        <v>4</v>
-      </c>
-      <c r="G208" s="5">
-        <v>4</v>
-      </c>
-      <c r="H208" s="5">
-        <v>9</v>
-      </c>
-      <c r="I208" s="6">
-        <v>2384964.765625</v>
-      </c>
-      <c r="J208" s="5">
-        <v>283</v>
-      </c>
-      <c r="K208" s="7">
-        <v>30.75357144466</v>
-      </c>
-      <c r="L208" s="3">
-        <v>8.54345703125</v>
-      </c>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A209" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="C209" s="3">
-        <v>19.091923117637599</v>
-      </c>
-      <c r="D209" s="4">
-        <v>37.68</v>
-      </c>
-      <c r="E209" s="5">
-        <v>1</v>
-      </c>
-      <c r="F209" s="5">
-        <v>7</v>
-      </c>
-      <c r="G209" s="5">
-        <v>7</v>
-      </c>
-      <c r="H209" s="5">
-        <v>12</v>
-      </c>
-      <c r="I209" s="6">
-        <v>1963990.5084635401</v>
-      </c>
-      <c r="J209" s="5">
-        <v>207</v>
-      </c>
-      <c r="K209" s="7">
-        <v>23.474842324659999</v>
-      </c>
-      <c r="L209" s="3">
-        <v>6.69775390625</v>
-      </c>
-    </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A210" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C210" s="3">
-        <v>19.0841339826584</v>
-      </c>
-      <c r="D210" s="4">
-        <v>33.57</v>
-      </c>
-      <c r="E210" s="5">
-        <v>2</v>
-      </c>
-      <c r="F210" s="5">
-        <v>6</v>
-      </c>
-      <c r="G210" s="5">
-        <v>6</v>
-      </c>
-      <c r="H210" s="5">
-        <v>15</v>
-      </c>
-      <c r="I210" s="6">
-        <v>2846021.56640625</v>
-      </c>
-      <c r="J210" s="5">
-        <v>277</v>
-      </c>
-      <c r="K210" s="7">
-        <v>30.355863394659998</v>
-      </c>
-      <c r="L210" s="3">
-        <v>8.32373046875</v>
-      </c>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A211" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C211" s="3">
-        <v>19.0791351795197</v>
-      </c>
-      <c r="D211" s="4">
-        <v>13.16</v>
-      </c>
-      <c r="E211" s="5">
-        <v>1</v>
-      </c>
-      <c r="F211" s="5">
-        <v>3</v>
-      </c>
-      <c r="G211" s="5">
-        <v>3</v>
-      </c>
-      <c r="H211" s="5">
-        <v>10</v>
-      </c>
-      <c r="I211" s="6">
-        <v>3367724.7083333302</v>
-      </c>
-      <c r="J211" s="5">
-        <v>266</v>
-      </c>
-      <c r="K211" s="7">
-        <v>29.977025534660001</v>
-      </c>
-      <c r="L211" s="3">
-        <v>10.60888671875</v>
-      </c>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A212" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="C212" s="3">
-        <v>18.8290903568268</v>
-      </c>
-      <c r="D212" s="4">
-        <v>26.94</v>
-      </c>
-      <c r="E212" s="5">
-        <v>1</v>
-      </c>
-      <c r="F212" s="5">
-        <v>5</v>
-      </c>
-      <c r="G212" s="5">
-        <v>6</v>
-      </c>
-      <c r="H212" s="5">
-        <v>13</v>
-      </c>
-      <c r="I212" s="6">
-        <v>3265445.8880208302</v>
-      </c>
-      <c r="J212" s="5">
-        <v>271</v>
-      </c>
-      <c r="K212" s="7">
-        <v>30.520813854659998</v>
-      </c>
-      <c r="L212" s="3">
-        <v>6.29052734375</v>
-      </c>
-    </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A213" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C213" s="3">
-        <v>18.796700358390801</v>
-      </c>
-      <c r="D213" s="4">
-        <v>29.07</v>
-      </c>
-      <c r="E213" s="5">
-        <v>1</v>
-      </c>
-      <c r="F213" s="5">
-        <v>12</v>
-      </c>
-      <c r="G213" s="5">
-        <v>12</v>
-      </c>
-      <c r="H213" s="5">
-        <v>22</v>
-      </c>
-      <c r="I213" s="6">
-        <v>1803899.25</v>
-      </c>
-      <c r="J213" s="5">
-        <v>602</v>
-      </c>
-      <c r="K213" s="7">
-        <v>65.982734864660003</v>
-      </c>
-      <c r="L213" s="3">
-        <v>5.92236328125</v>
       </c>
     </row>
   </sheetData>
